--- a/dane/Dane_TSP_76.xlsx
+++ b/dane/Dane_TSP_76.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afe6526418c37a8e/Pulpit/rep/ComputationalInteligence/dane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3186C4F8-6BED-4B0E-88DF-5D5F7A87784A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{3186C4F8-6BED-4B0E-88DF-5D5F7A87784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229F3D00-1870-4AE6-B037-1400B939ECAD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E92C40E-D2D6-4D6C-8826-671A9922C679}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2E92C40E-D2D6-4D6C-8826-671A9922C679}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,15 +61,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -85,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -231,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,13 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA78BEE2-21FA-481B-9D61-3C52918C26C9}">
-  <dimension ref="A1:BY77"/>
+  <dimension ref="A1:CC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BA56" zoomScale="65" workbookViewId="0">
+      <selection activeCell="CC77" sqref="CC1:CD77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>1</v>
       </c>
@@ -616,8 +634,9 @@
       <c r="BY1">
         <v>76</v>
       </c>
+      <c r="CC1" s="1"/>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -846,8 +865,9 @@
       <c r="BY2">
         <v>3716.180835212409</v>
       </c>
+      <c r="CC2" s="1"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1076,8 +1096,9 @@
       <c r="BY3">
         <v>3828.8379438153288</v>
       </c>
+      <c r="CC3" s="1"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1306,8 +1327,9 @@
       <c r="BY4">
         <v>6689.7309362933274</v>
       </c>
+      <c r="CC4" s="1"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1536,8 +1558,9 @@
       <c r="BY5">
         <v>7179.3105518566344</v>
       </c>
+      <c r="CC5" s="1"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1766,8 +1789,9 @@
       <c r="BY6">
         <v>8305.0751351206927</v>
       </c>
+      <c r="CC6" s="1"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1996,8 +2020,9 @@
       <c r="BY7">
         <v>7625.2903551274694</v>
       </c>
+      <c r="CC7" s="1"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2226,8 +2251,9 @@
       <c r="BY8">
         <v>7027.2683170631817</v>
       </c>
+      <c r="CC8" s="1"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2456,8 +2482,9 @@
       <c r="BY9">
         <v>7071.9516401061464</v>
       </c>
+      <c r="CC9" s="1"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2686,8 +2713,9 @@
       <c r="BY10">
         <v>8875.3873154922094</v>
       </c>
+      <c r="CC10" s="1"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2916,8 +2944,9 @@
       <c r="BY11">
         <v>9250</v>
       </c>
+      <c r="CC11" s="1"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3146,8 +3175,9 @@
       <c r="BY12">
         <v>10718.49378410978</v>
       </c>
+      <c r="CC12" s="1"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3376,8 +3406,9 @@
       <c r="BY13">
         <v>10199.057211330861</v>
       </c>
+      <c r="CC13" s="1"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3606,8 +3637,9 @@
       <c r="BY14">
         <v>10562.196741208711</v>
       </c>
+      <c r="CC14" s="1"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3836,8 +3868,9 @@
       <c r="BY15">
         <v>10556.15933945675</v>
       </c>
+      <c r="CC15" s="1"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4066,8 +4099,9 @@
       <c r="BY16">
         <v>11746.169588423279</v>
       </c>
+      <c r="CC16" s="1"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4296,8 +4330,9 @@
       <c r="BY17">
         <v>12031.728886573201</v>
       </c>
+      <c r="CC17" s="1"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4526,8 +4561,9 @@
       <c r="BY18">
         <v>11899.684869777009</v>
       </c>
+      <c r="CC18" s="1"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4756,8 +4792,9 @@
       <c r="BY19">
         <v>12386.787315522941</v>
       </c>
+      <c r="CC19" s="1"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4986,8 +5023,9 @@
       <c r="BY20">
         <v>9592.3146320374617</v>
       </c>
+      <c r="CC20" s="1"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5216,8 +5254,9 @@
       <c r="BY21">
         <v>8912.0704665077683</v>
       </c>
+      <c r="CC21" s="1"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5446,8 +5485,9 @@
       <c r="BY22">
         <v>7527.2837066235252</v>
       </c>
+      <c r="CC22" s="1"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5676,8 +5716,9 @@
       <c r="BY23">
         <v>6622.1220163932348</v>
       </c>
+      <c r="CC23" s="1"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5906,8 +5947,9 @@
       <c r="BY24">
         <v>5261.1785751863617</v>
       </c>
+      <c r="CC24" s="1"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6136,8 +6178,9 @@
       <c r="BY25">
         <v>8286.8872322483057</v>
       </c>
+      <c r="CC25" s="1"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6366,8 +6409,9 @@
       <c r="BY26">
         <v>8048.1364302551428</v>
       </c>
+      <c r="CC26" s="1"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6596,8 +6640,9 @@
       <c r="BY27">
         <v>10491.186777481371</v>
       </c>
+      <c r="CC27" s="1"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6826,8 +6871,9 @@
       <c r="BY28">
         <v>11113.28034380488</v>
       </c>
+      <c r="CC28" s="1"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7056,8 +7102,9 @@
       <c r="BY29">
         <v>11954.613042671021</v>
       </c>
+      <c r="CC29" s="1"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7286,8 +7333,9 @@
       <c r="BY30">
         <v>11022.297990891009</v>
       </c>
+      <c r="CC30" s="1"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7516,8 +7564,9 @@
       <c r="BY31">
         <v>10210.0440743417</v>
       </c>
+      <c r="CC31" s="1"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7746,8 +7795,9 @@
       <c r="BY32">
         <v>10006.248048094751</v>
       </c>
+      <c r="CC32" s="1"/>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7976,8 +8026,9 @@
       <c r="BY33">
         <v>12003.54114417908</v>
       </c>
+      <c r="CC33" s="1"/>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8206,8 +8257,9 @@
       <c r="BY34">
         <v>12550.896382330629</v>
       </c>
+      <c r="CC34" s="1"/>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8436,8 +8488,9 @@
       <c r="BY35">
         <v>13742.038022069361</v>
       </c>
+      <c r="CC35" s="1"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8666,8 +8719,9 @@
       <c r="BY36">
         <v>12936.663712101359</v>
       </c>
+      <c r="CC36" s="1"/>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8896,8 +8950,9 @@
       <c r="BY37">
         <v>12900.48448702606</v>
       </c>
+      <c r="CC37" s="1"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9126,8 +9181,9 @@
       <c r="BY38">
         <v>12710.03540514345</v>
       </c>
+      <c r="CC38" s="1"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9356,8 +9412,9 @@
       <c r="BY39">
         <v>14257.804880134951</v>
       </c>
+      <c r="CC39" s="1"/>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9586,8 +9643,9 @@
       <c r="BY40">
         <v>14721.58279533828</v>
       </c>
+      <c r="CC40" s="1"/>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9816,8 +9874,9 @@
       <c r="BY41">
         <v>15014.65950329877</v>
       </c>
+      <c r="CC41" s="1"/>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10046,8 +10105,9 @@
       <c r="BY42">
         <v>15602.72412112705</v>
       </c>
+      <c r="CC42" s="1"/>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10276,8 +10336,9 @@
       <c r="BY43">
         <v>13491.664093061319</v>
       </c>
+      <c r="CC43" s="1"/>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10506,8 +10567,9 @@
       <c r="BY44">
         <v>12777.421492617361</v>
       </c>
+      <c r="CC44" s="1"/>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10736,8 +10798,9 @@
       <c r="BY45">
         <v>12110.842249818959</v>
       </c>
+      <c r="CC45" s="1"/>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10966,8 +11029,9 @@
       <c r="BY46">
         <v>11300</v>
       </c>
+      <c r="CC46" s="1"/>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11196,8 +11260,9 @@
       <c r="BY47">
         <v>9982.1089955980751</v>
       </c>
+      <c r="CC47" s="1"/>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11426,8 +11491,9 @@
       <c r="BY48">
         <v>12986.916493148021</v>
       </c>
+      <c r="CC48" s="1"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11656,8 +11722,9 @@
       <c r="BY49">
         <v>12649.50591920491</v>
       </c>
+      <c r="CC49" s="1"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11886,8 +11953,9 @@
       <c r="BY50">
         <v>14849.32658405761</v>
       </c>
+      <c r="CC50" s="1"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12116,8 +12184,9 @@
       <c r="BY51">
         <v>15511.044452260459</v>
       </c>
+      <c r="CC51" s="1"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12346,8 +12415,9 @@
       <c r="BY52">
         <v>16185.681110166481</v>
       </c>
+      <c r="CC52" s="1"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12576,8 +12646,9 @@
       <c r="BY53">
         <v>15164.499760954861</v>
       </c>
+      <c r="CC53" s="1"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12806,8 +12877,9 @@
       <c r="BY54">
         <v>14290.99366734168</v>
       </c>
+      <c r="CC54" s="1"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13036,8 +13108,9 @@
       <c r="BY55">
         <v>13977.213599283659</v>
       </c>
+      <c r="CC55" s="1"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13266,8 +13339,9 @@
       <c r="BY56">
         <v>15953.7613119916</v>
       </c>
+      <c r="CC56" s="1"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13496,8 +13570,9 @@
       <c r="BY57">
         <v>16571.43626847112</v>
       </c>
+      <c r="CC57" s="1"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13726,8 +13801,9 @@
       <c r="BY58">
         <v>17547.823483269942</v>
       </c>
+      <c r="CC58" s="1"/>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13956,8 +14032,9 @@
       <c r="BY59">
         <v>16607.79238791237</v>
       </c>
+      <c r="CC59" s="1"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14186,8 +14263,9 @@
       <c r="BY60">
         <v>16322.07094703365</v>
       </c>
+      <c r="CC60" s="1"/>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14416,8 +14494,9 @@
       <c r="BY61">
         <v>16024.434467400089</v>
       </c>
+      <c r="CC61" s="1"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14646,8 +14725,9 @@
       <c r="BY62">
         <v>17712.213300431991</v>
       </c>
+      <c r="CC62" s="1"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14876,8 +14956,9 @@
       <c r="BY63">
         <v>18270.536390593461</v>
       </c>
+      <c r="CC63" s="1"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -15106,8 +15187,9 @@
       <c r="BY64">
         <v>18825.58100033037</v>
       </c>
+      <c r="CC64" s="1"/>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -15336,8 +15418,9 @@
       <c r="BY65">
         <v>19457.196612050771</v>
       </c>
+      <c r="CC65" s="1"/>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15566,8 +15649,9 @@
       <c r="BY66">
         <v>17809.05668473207</v>
       </c>
+      <c r="CC66" s="1"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15796,8 +15880,9 @@
       <c r="BY67">
         <v>17094.5897874152</v>
       </c>
+      <c r="CC67" s="1"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16026,8 +16111,9 @@
       <c r="BY68">
         <v>16787.197502859141</v>
       </c>
+      <c r="CC68" s="1"/>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16256,8 +16342,9 @@
       <c r="BY69">
         <v>16020.37764848257</v>
       </c>
+      <c r="CC69" s="1"/>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16486,8 +16573,9 @@
       <c r="BY70">
         <v>14721.75261305528</v>
       </c>
+      <c r="CC70" s="1"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16716,8 +16804,9 @@
       <c r="BY71">
         <v>19600</v>
       </c>
+      <c r="CC71" s="1"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16946,8 +17035,9 @@
       <c r="BY72">
         <v>21651.789764358971</v>
       </c>
+      <c r="CC72" s="1"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17176,8 +17266,9 @@
       <c r="BY73">
         <v>22524.87513838867</v>
       </c>
+      <c r="CC73" s="1"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17406,8 +17497,9 @@
       <c r="BY74">
         <v>22674.214429611449</v>
       </c>
+      <c r="CC74" s="1"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17636,8 +17728,9 @@
       <c r="BY75">
         <v>11400</v>
       </c>
+      <c r="CC75" s="1"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17866,8 +17959,9 @@
       <c r="BY76">
         <v>300</v>
       </c>
+      <c r="CC76" s="1"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18103,6 +18197,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009A90AB19BA281B46B8380751D999A78D" ma:contentTypeVersion="0" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="c40d0272618a62777a0f7766a273942b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fb9aac25f9b64d69d83117132aa4630">
     <xsd:element name="properties">
@@ -18216,29 +18325,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43A6DEE-B140-4F15-ACBD-F1F8621E4B54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0D62E09-2E70-4F39-AC10-3402E7CC7BA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FB3B57-1FB5-458F-B3E5-92289D7FB13B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FB3B57-1FB5-458F-B3E5-92289D7FB13B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0D62E09-2E70-4F39-AC10-3402E7CC7BA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43A6DEE-B140-4F15-ACBD-F1F8621E4B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>